--- a/.templates/Catalogo Bloques.xlsx
+++ b/.templates/Catalogo Bloques.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">

--- a/.templates/Catalogo Bloques.xlsx
+++ b/.templates/Catalogo Bloques.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/manuel_villanueva_serrano_mx_ey_com/Documents/Documents/UiPath/Leer_Facturas_Nomina/.templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HE678HU\OneDrive - EY\Documents\UiPath\Leer_Facturas_Nomina\.templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{855E92BB-FF24-4224-A451-CC4447554A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD4CE2A0-478A-4FD7-9357-A16D8C22D9F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3ED4ED-2D9B-428A-A995-EF5E027D51C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33189053-684B-4CB6-893A-B846111F4B4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33189053-684B-4CB6-893A-B846111F4B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Centro" sheetId="1" r:id="rId1"/>

--- a/.templates/Catalogo Bloques.xlsx
+++ b/.templates/Catalogo Bloques.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HE678HU\OneDrive - EY\Documents\UiPath\Leer_Facturas_Nomina\.templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/manuel_villanueva_serrano_mx_ey_com/Documents/Documents/UiPath/Leer_Facturas_Nomina/.templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3ED4ED-2D9B-428A-A995-EF5E027D51C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33189053-684B-4CB6-893A-B846111F4B4D}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{33189053-684B-4CB6-893A-B846111F4B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Centro" sheetId="1" r:id="rId1"/>
